--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_14_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_14_17.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>127849.0514077735</v>
+        <v>141575.4095451916</v>
       </c>
     </row>
     <row r="7">
@@ -26317,10 +26319,10 @@
         <v>91381.29470172945</v>
       </c>
       <c r="D2" t="n">
-        <v>91381.29470172945</v>
+        <v>91381.29470172944</v>
       </c>
       <c r="E2" t="n">
-        <v>97172.46592738405</v>
+        <v>97172.46592738404</v>
       </c>
       <c r="F2" t="n">
         <v>97172.46592738405</v>
@@ -26329,10 +26331,10 @@
         <v>97172.46592738405</v>
       </c>
       <c r="H2" t="n">
-        <v>97172.46592738405</v>
+        <v>97172.46592738404</v>
       </c>
       <c r="I2" t="n">
-        <v>97172.46592738405</v>
+        <v>97172.46592738404</v>
       </c>
       <c r="J2" t="n">
         <v>97172.46592738405</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>75255.18387201248</v>
       </c>
       <c r="E4" t="n">
-        <v>44596.60800251982</v>
+        <v>44596.60800251983</v>
       </c>
       <c r="F4" t="n">
-        <v>44596.60800251982</v>
+        <v>44596.60800251983</v>
       </c>
       <c r="G4" t="n">
-        <v>44596.60800251982</v>
+        <v>44596.60800251983</v>
       </c>
       <c r="H4" t="n">
-        <v>44596.60800251982</v>
+        <v>44596.60800251983</v>
       </c>
       <c r="I4" t="n">
-        <v>44596.60800251982</v>
+        <v>44596.60800251983</v>
       </c>
       <c r="J4" t="n">
-        <v>44596.60800251982</v>
+        <v>44596.60800251983</v>
       </c>
       <c r="K4" t="n">
-        <v>44596.60800251982</v>
+        <v>44596.60800251983</v>
       </c>
       <c r="L4" t="n">
-        <v>44596.60800251982</v>
+        <v>44596.60800251983</v>
       </c>
       <c r="M4" t="n">
-        <v>44596.60800251982</v>
+        <v>44596.60800251983</v>
       </c>
       <c r="N4" t="n">
-        <v>44596.60800251982</v>
+        <v>44596.60800251983</v>
       </c>
       <c r="O4" t="n">
-        <v>44596.60800251982</v>
+        <v>44596.60800251983</v>
       </c>
       <c r="P4" t="n">
-        <v>44596.60800251982</v>
+        <v>44596.60800251983</v>
       </c>
     </row>
     <row r="5">
@@ -26525,10 +26527,10 @@
         <v>-17501.48917028303</v>
       </c>
       <c r="D6" t="n">
-        <v>-17501.48917028303</v>
+        <v>-17501.48917028304</v>
       </c>
       <c r="E6" t="n">
-        <v>-84135.7541801441</v>
+        <v>-84135.75418014417</v>
       </c>
       <c r="F6" t="n">
         <v>48964.2458198559</v>
@@ -26537,10 +26539,10 @@
         <v>48964.2458198559</v>
       </c>
       <c r="H6" t="n">
-        <v>48964.2458198559</v>
+        <v>48964.24581985588</v>
       </c>
       <c r="I6" t="n">
-        <v>48964.2458198559</v>
+        <v>48964.24581985588</v>
       </c>
       <c r="J6" t="n">
         <v>48964.2458198559</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_14_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_14_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>141575.4095451916</v>
+        <v>16465.51074771491</v>
       </c>
     </row>
     <row r="7">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>91381.29470172945</v>
+        <v>91381.29470172944</v>
       </c>
       <c r="C2" t="n">
         <v>91381.29470172945</v>
@@ -26322,7 +26322,7 @@
         <v>91381.29470172944</v>
       </c>
       <c r="E2" t="n">
-        <v>97172.46592738404</v>
+        <v>97172.46592738405</v>
       </c>
       <c r="F2" t="n">
         <v>97172.46592738405</v>
@@ -26331,10 +26331,10 @@
         <v>97172.46592738405</v>
       </c>
       <c r="H2" t="n">
-        <v>97172.46592738404</v>
+        <v>97172.46592738405</v>
       </c>
       <c r="I2" t="n">
-        <v>97172.46592738404</v>
+        <v>97172.46592738405</v>
       </c>
       <c r="J2" t="n">
         <v>97172.46592738405</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-17501.48917028303</v>
+        <v>-32652.16314031781</v>
       </c>
       <c r="C6" t="n">
-        <v>-17501.48917028303</v>
+        <v>-32652.16314031779</v>
       </c>
       <c r="D6" t="n">
-        <v>-17501.48917028304</v>
+        <v>-32652.16314031781</v>
       </c>
       <c r="E6" t="n">
-        <v>-84135.75418014417</v>
+        <v>-98945.77101925806</v>
       </c>
       <c r="F6" t="n">
-        <v>48964.2458198559</v>
+        <v>34154.22898074199</v>
       </c>
       <c r="G6" t="n">
-        <v>48964.2458198559</v>
+        <v>34154.22898074199</v>
       </c>
       <c r="H6" t="n">
-        <v>48964.24581985588</v>
+        <v>34154.22898074199</v>
       </c>
       <c r="I6" t="n">
-        <v>48964.24581985588</v>
+        <v>34154.22898074199</v>
       </c>
       <c r="J6" t="n">
-        <v>48964.2458198559</v>
+        <v>34154.22898074199</v>
       </c>
       <c r="K6" t="n">
-        <v>48964.2458198559</v>
+        <v>34154.22898074199</v>
       </c>
       <c r="L6" t="n">
-        <v>48964.2458198559</v>
+        <v>34154.22898074199</v>
       </c>
       <c r="M6" t="n">
-        <v>48964.2458198559</v>
+        <v>34154.22898074199</v>
       </c>
       <c r="N6" t="n">
-        <v>48964.2458198559</v>
+        <v>34154.22898074199</v>
       </c>
       <c r="O6" t="n">
-        <v>48964.2458198559</v>
+        <v>34154.22898074199</v>
       </c>
       <c r="P6" t="n">
-        <v>48964.2458198559</v>
+        <v>34154.22898074199</v>
       </c>
     </row>
   </sheetData>
